--- a/Time Series Forecasting - Additive 10Nov2019.xlsx
+++ b/Time Series Forecasting - Additive 10Nov2019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\__PrepCourses\Time Series Course\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\__Courses\7 Time Series\Time-Series-Forecasting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7936B0CB-2299-48C1-B5EE-C9B44A4F5141}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5D1EB02-5DF1-404A-90EA-8C0F3DEFED70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{222811F3-B945-4F38-BB77-4DEABE907094}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{222811F3-B945-4F38-BB77-4DEABE907094}"/>
   </bookViews>
   <sheets>
     <sheet name="Step0" sheetId="4" r:id="rId1"/>
@@ -516,9 +516,6 @@
     <t>Classic Additive Time Series Model</t>
   </si>
   <si>
-    <t>Yt = Tt + Ct + St *It</t>
-  </si>
-  <si>
     <t>Ct</t>
   </si>
   <si>
@@ -544,6 +541,9 @@
   </si>
   <si>
     <t>http://www.youtube.com/fxexcel</t>
+  </si>
+  <si>
+    <t>Yt = Tt + Ct + St +It</t>
   </si>
 </sst>
 </file>
@@ -7100,7 +7100,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7111,7 +7111,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -7124,7 +7124,7 @@
     </row>
     <row r="4" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -7150,7 +7150,7 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -7163,10 +7163,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" t="s">
         <v>72</v>
-      </c>
-      <c r="B10" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -7187,7 +7187,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B14" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -7608,10 +7608,10 @@
       </c>
       <c r="G6" s="21"/>
       <c r="H6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
         <v>76</v>
-      </c>
-      <c r="J6" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
@@ -8345,10 +8345,10 @@
       </c>
       <c r="G7" s="21"/>
       <c r="H7" t="s">
+        <v>75</v>
+      </c>
+      <c r="J7" t="s">
         <v>76</v>
-      </c>
-      <c r="J7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
@@ -9380,10 +9380,10 @@
       </c>
       <c r="G7" s="21"/>
       <c r="H7" t="s">
+        <v>75</v>
+      </c>
+      <c r="J7" t="s">
         <v>76</v>
-      </c>
-      <c r="J7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
@@ -9424,7 +9424,7 @@
         <v>45</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O8" s="20">
         <f>AVERAGE(N9:N24)</f>
@@ -10452,10 +10452,10 @@
       </c>
       <c r="G7" s="21"/>
       <c r="H7" t="s">
+        <v>75</v>
+      </c>
+      <c r="J7" t="s">
         <v>76</v>
-      </c>
-      <c r="J7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
@@ -10499,14 +10499,14 @@
         <v>69</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P8" s="20">
         <f>AVERAGE(O9:O24)</f>
         <v>1.842785040369543E-2</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
